--- a/bullet11_plots.xlsx
+++ b/bullet11_plots.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="11880" yWindow="0" windowWidth="12400" windowHeight="11600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart3" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>time</t>
   </si>
@@ -39,12 +39,27 @@
   <si>
     <t>Videal</t>
   </si>
+  <si>
+    <t>abserror1</t>
+  </si>
+  <si>
+    <t>percerror1</t>
+  </si>
+  <si>
+    <t>abserror2</t>
+  </si>
+  <si>
+    <t>percerror2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -68,11 +83,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -91,7 +101,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -99,17 +109,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -184,13 +203,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>-10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>-20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.0</c:v>
+                  <c:v>-30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -202,13 +221,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.129999999999965</c:v>
+                  <c:v>-4.988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.42000000000009</c:v>
+                  <c:v>-9.857</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.850000000000023</c:v>
+                  <c:v>-14.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -238,13 +257,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10.0</c:v>
+                  <c:v>-10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.0</c:v>
+                  <c:v>-20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.0</c:v>
+                  <c:v>-30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -256,13 +275,62 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.590000000000092</c:v>
+                  <c:v>-5.25798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.319999999999991</c:v>
+                  <c:v>-10.5133</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.180000000000076</c:v>
+                  <c:v>-15.7632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Ideal Case</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-30.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-5.300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-15.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -277,13 +345,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2127652424"/>
-        <c:axId val="-2127713128"/>
+        <c:axId val="2101139368"/>
+        <c:axId val="2101731384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2127652424"/>
+        <c:axId val="2101139368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="30.0"/>
+          <c:min val="8.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -310,14 +380,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127713128"/>
+        <c:crossAx val="2101731384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2127713128"/>
+        <c:axId val="2101731384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="16.0"/>
+          <c:min val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -345,7 +417,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127652424"/>
+        <c:crossAx val="2101139368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -366,7 +438,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="103" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -722,15 +794,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -746,47 +825,212 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>-10</v>
+      </c>
+      <c r="C2">
+        <f>B2*0.53</f>
+        <v>-5.3000000000000007</v>
       </c>
       <c r="D2">
-        <v>2.1299999999999653</v>
+        <v>-4.9880000000000004</v>
       </c>
       <c r="E2">
-        <v>2.5900000000000922</v>
+        <v>-5.2579799999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <f>C2-D2</f>
+        <v>-0.31200000000000028</v>
+      </c>
+      <c r="G2" s="1">
+        <f>F2/C2</f>
+        <v>5.8867924528301932E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <f>C2-E2</f>
+        <v>-4.2020000000000834E-2</v>
+      </c>
+      <c r="I2" s="1">
+        <f>H2/C2</f>
+        <v>7.9283018867926085E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>-20</v>
+      </c>
+      <c r="C3">
+        <f>B3*0.53</f>
+        <v>-10.600000000000001</v>
       </c>
       <c r="D3">
-        <v>4.4200000000000905</v>
+        <v>-9.8569999999999993</v>
       </c>
       <c r="E3">
-        <v>5.3199999999999914</v>
+        <v>-10.513299999999999</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F4" si="0">C3-D3</f>
+        <v>-0.7430000000000021</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G4" si="1">F3/C3</f>
+        <v>7.0094339622641694E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H4" si="2">C3-E3</f>
+        <v>-8.670000000000222E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I4" si="3">H3/C3</f>
+        <v>8.1792452830190768E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
+        <v>-30</v>
+      </c>
+      <c r="C4">
+        <f>B4*0.53</f>
+        <v>-15.9</v>
+      </c>
+      <c r="D4">
+        <v>-14.75</v>
+      </c>
+      <c r="E4">
+        <v>-15.763199999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.1500000000000004</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>7.2327044025157258E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.13680000000000092</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="3"/>
+        <v>8.6037735849057179E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C7" si="4">B5*0.53</f>
+        <v>5.3000000000000007</v>
+      </c>
+      <c r="D5">
+        <v>4.9729999999999999</v>
+      </c>
+      <c r="E5">
+        <v>5.2729999999999997</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F7" si="5">C5-D5</f>
+        <v>0.32700000000000085</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G7" si="6">F5/C5</f>
+        <v>6.1698113207547318E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H7" si="7">C5-E5</f>
+        <v>2.7000000000001023E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I7" si="8">H5/C5</f>
+        <v>5.0943396226417019E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="4"/>
+        <v>10.600000000000001</v>
+      </c>
+      <c r="D6">
+        <v>9.89</v>
+      </c>
+      <c r="E6">
+        <v>10.55</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="5"/>
+        <v>0.71000000000000085</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="6"/>
+        <v>6.6981132075471767E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="7"/>
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="8"/>
+        <v>4.7169811320755383E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7">
         <v>30</v>
       </c>
-      <c r="D4">
-        <v>6.8500000000000227</v>
-      </c>
-      <c r="E4">
-        <v>8.1800000000000761</v>
+      <c r="C7">
+        <f t="shared" si="4"/>
+        <v>15.9</v>
+      </c>
+      <c r="D7">
+        <v>14.84</v>
+      </c>
+      <c r="E7">
+        <v>15.83</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0600000000000005</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="6"/>
+        <v>6.6666666666666693E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="7"/>
+        <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="8"/>
+        <v>4.4025157232704584E-3</v>
       </c>
     </row>
   </sheetData>
